--- a/biology/Botanique/Léon_Conill/Léon_Conill.xlsx
+++ b/biology/Botanique/Léon_Conill/Léon_Conill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Conill</t>
+          <t>Léon_Conill</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph, Emile, Louis dit Léon Conill, né le 6 septembre 1872 à Banyuls-sur-Mer et mort le 21 août 1944 à Vernet-les-Bains, est un instituteur, botaniste et naturaliste français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph, Emile, Louis dit Léon Conill, né le 6 septembre 1872 à Banyuls-sur-Mer et mort le 21 août 1944 à Vernet-les-Bains, est un instituteur, botaniste et naturaliste français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Conill</t>
+          <t>Léon_Conill</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elève de l'École normale de Perpignan de 1890 à 1893, Léon Conill occupe plusieurs postes d'instituteurs dans les Pyrénées-Orientales avant d'être directeur d'école à Toreilles en 1912 jusqu'à sa retraite en 1928. Il est initié à la botanique par Justin Castanier, alors directeur de l'école de Sorède[2]. Il arpente le département et sa flore suivant ses affectations notamment le pic du Canigou après son installation à Vernet-les-Bains. Il est l'auteur de près de 80 publications et d'herbiers[3], fruit de ses récoltes et de ses observations faites sur le terrain. Il collabore à plusieurs herborisations[4] pour la Société agricole, scientifique et littéraire des Pyrénées-Orientales et pour des institutions hors du département, en France ou en Catalogne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elève de l'École normale de Perpignan de 1890 à 1893, Léon Conill occupe plusieurs postes d'instituteurs dans les Pyrénées-Orientales avant d'être directeur d'école à Toreilles en 1912 jusqu'à sa retraite en 1928. Il est initié à la botanique par Justin Castanier, alors directeur de l'école de Sorède. Il arpente le département et sa flore suivant ses affectations notamment le pic du Canigou après son installation à Vernet-les-Bains. Il est l'auteur de près de 80 publications et d'herbiers, fruit de ses récoltes et de ses observations faites sur le terrain. Il collabore à plusieurs herborisations pour la Société agricole, scientifique et littéraire des Pyrénées-Orientales et pour des institutions hors du département, en France ou en Catalogne.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Conill</t>
+          <t>Léon_Conill</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Aperçu de la flore de Sournia (Pyrénées-orientales) : essai de géographie botanique », Société agricole, scientifique et littéraire des Pyrénées-orientales, vol. 50,‎ 1909 (lire en ligne).
 Botanique catalane pratique, Perpignan, Imp. J. Comet, 1910, VIII-382 p..
